--- a/output.xlsx
+++ b/output.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,29 +582,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Susu</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>June 2, 2023 2:09 PM</t>
+          <t>July 3, 2023 2:30 PM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-135000</v>
+        <v>-99000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kabel sony</t>
+          <t>Ssd pny</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>June 3, 2023 7:36 PM</t>
+          <t>July 11, 2023 4:01 PM</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-70000</v>
+        <v>-1300000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>June 23, 2023 6:28 AM</t>
+          <t>July 25, 2023 8:15 AM</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -625,41 +625,41 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3823200</v>
+        <v>3548900</v>
       </c>
       <c r="M3" t="n">
         <v>4000000</v>
       </c>
       <c r="N3" t="n">
-        <v>176800</v>
+        <v>451100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ikan dori</t>
+          <t>Mie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June 4, 2023 12:43 PM</t>
+          <t>July 3, 2023 2:31 PM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-38000</v>
+        <v>-49000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jkt48</t>
+          <t>Cyberpunk 2077</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>June 4, 2023 10:04 PM</t>
+          <t>July 13, 2023 1:13 PM</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-75000</v>
+        <v>-350000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>June 26, 2023 6:00 PM</t>
+          <t>July 26, 2023 1:05 PM</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -680,41 +680,54 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="M4" t="n">
         <v>1600000</v>
       </c>
       <c r="N4" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ayam brokolo</t>
+          <t>Gado gado</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>June 5, 2023 11:32 AM</t>
+          <t>July 4, 2023 11:26 AM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mic splitter</t>
+          <t>Honkai star rail</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>June 6, 2023 7:07 PM</t>
+          <t>July 23, 2023 12:50 PM</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-80000</v>
+        <v>-90000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Long pocket</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>July 28, 2023 3:39 PM</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-400000</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -722,41 +735,54 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1403300</v>
+        <v>1740000</v>
       </c>
       <c r="M5" t="n">
         <v>2400000</v>
       </c>
       <c r="N5" t="n">
-        <v>996700</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caffe latte</t>
+          <t>Gorengan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>June 5, 2023 12:36 PM</t>
+          <t>July 4, 2023 2:39 PM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-25500</v>
+        <v>-6000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Silverqueen</t>
+          <t>Gaji</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:42 PM</t>
+          <t>July 25, 2023 8:15 AM</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-19300</v>
+        <v>2400000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Short pocket</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>July 28, 2023 3:39 PM</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-200000</v>
       </c>
     </row>
     <row r="7">
@@ -767,623 +793,532 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>June 5, 2023 12:36 PM</t>
+          <t>July 4, 2023 5:36 PM</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>-102500</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kereta jogja</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>June 10, 2023 2:45 PM</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>-270000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mie</t>
+          <t>Shell super</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June 5, 2023 9:00 PM</t>
+          <t>July 5, 2023 12:15 PM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6200</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Kereta senen</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>June 10, 2023 7:55 PM</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>-261000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Roti tawar</t>
+          <t>Sunlight</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June 5, 2023 9:00 PM</t>
+          <t>July 5, 2023 12:15 PM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-22000</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Costa light</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>June 11, 2023 8:08 AM</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>-370000</v>
+        <v>-26400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kewpie</t>
+          <t>Indomi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June 5, 2023 9:00 PM</t>
+          <t>July 5, 2023 12:16 PM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-35900</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Serum your bae</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>June 16, 2023 8:09 AM</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>-133000</v>
+        <v>-8400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Telur</t>
+          <t>Selada</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June 5, 2023 9:01 PM</t>
+          <t>July 5, 2023 12:16 PM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-28000</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Jakarta fair</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>June 17, 2023 4:07 PM</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>-50000</v>
+        <v>-14900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ayam</t>
+          <t>Ayam pop perkedel</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June 5, 2023 9:01 PM</t>
+          <t>July 6, 2023 12:01 PM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-12900</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Gaji</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>June 23, 2023 6:28 AM</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2400000</v>
+        <v>-27000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ayam nadi padang</t>
+          <t>Telur</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>June 6, 2023 6:55 PM</t>
+          <t>July 7, 2023 5:51 PM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-20000</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Kabel dji</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>June 24, 2023 9:22 PM</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>-75000</v>
+        <v>-28000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nasi kulit tahu tempe</t>
+          <t>Telor usus mendoan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>June 7, 2023 7:11 PM</t>
+          <t>July 7, 2023 6:28 PM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-23000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Isi nitrogen</t>
+          <t>Bengbeng</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:41 PM</t>
+          <t>July 8, 2023 1:28 PM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-6000</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gorengan</t>
+          <t>The halal guys</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:41 PM</t>
+          <t>July 9, 2023 6:39 AM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-5000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shell super</t>
+          <t>Ayam sayur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:42 PM</t>
+          <t>July 10, 2023 11:49 AM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-50000</v>
+        <v>-22000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kraft singles</t>
+          <t>Kopi kenangan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:42 PM</t>
+          <t>July 10, 2023 5:35 PM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-12500</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Good day</t>
+          <t>Byu</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:43 PM</t>
+          <t>July 12, 2023 6:25 AM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-12500</v>
+        <v>-35000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sosis </t>
+          <t>Bihun goreng</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:43 PM</t>
+          <t>July 12, 2023 6:26 AM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-49200</v>
+        <v>-32000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Pangsit goreng</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>June 8, 2023 1:43 PM</t>
+          <t>July 12, 2023 6:26 AM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-68500</v>
+        <v>-32000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nasi telur usus mendoan</t>
+          <t>Mie pangsit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June 9, 2023 5:51 PM</t>
+          <t>July 12, 2023 12:03 PM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-17000</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Servis motor</t>
+          <t>Gado gado</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June 10, 2023 1:39 PM</t>
+          <t>July 13, 2023 11:31 AM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-427500</v>
+        <v>-21000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Indomie</t>
+          <t>Kfc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>June 11, 2023 9:19 PM</t>
+          <t>July 14, 2023 4:38 PM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-8400</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Selada</t>
+          <t>Telur</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>June 11, 2023 9:19 PM</t>
+          <t>July 15, 2023 3:23 PM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-14900</v>
+        <v>-28000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Roti tawar</t>
+          <t>Pakcoy</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>June 11, 2023 9:20 PM</t>
+          <t>July 15, 2023 3:23 PM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-22000</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tisu</t>
+          <t>Goodday</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>June 11, 2023 9:20 PM</t>
+          <t>July 15, 2023 3:23 PM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-22500</v>
+        <v>-12700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Byu</t>
+          <t>Quaker oats</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>June 12, 2023 11:48 AM</t>
+          <t>July 17, 2023 12:17 PM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-50500</v>
+        <v>-49800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Telur usus mendoan</t>
+          <t>Aqua</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>June 12, 2023 11:49 AM</t>
+          <t>July 17, 2023 12:17 PM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-17000</v>
+        <v>-6600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ati kulit tempe</t>
+          <t>Indomi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>June 13, 2023 11:25 AM</t>
+          <t>July 17, 2023 12:18 PM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-27000</v>
+        <v>-8400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Telur</t>
+          <t>Gorengan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>June 14, 2023 2:53 PM</t>
+          <t>July 17, 2023 8:27 PM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-35000</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Quaker</t>
+          <t>Jaya residence</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>June 14, 2023 2:53 PM</t>
+          <t>July 18, 2023 11:10 AM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-52200</v>
+        <v>-1900000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Indomie</t>
+          <t>Ayam brokoli</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>June 14, 2023 2:53 PM</t>
+          <t>July 18, 2023 2:08 PM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-12000</v>
+        <v>-22000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ayam perkedel</t>
+          <t>Kulit tahu tempe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>June 15, 2023 11:58 AM</t>
+          <t>July 20, 2023 6:43 PM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-25000</v>
+        <v>-23000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ayam geprek</t>
+          <t>Gofood nasi n roti</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>June 16, 2023 4:05 PM</t>
+          <t>July 20, 2023 8:24 PM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-20000</v>
+        <v>-45000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Baby crab</t>
+          <t>Telur</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>June 17, 2023 11:37 AM</t>
+          <t>July 20, 2023 8:24 PM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-25000</v>
+        <v>-28000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Es tebu</t>
+          <t>Aw</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>June 17, 2023 4:06 PM</t>
+          <t>July 20, 2023 8:25 PM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-23000</v>
+        <v>-6300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Indomi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>June 17, 2023 4:06 PM</t>
+          <t>July 20, 2023 8:25 PM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-60000</v>
+        <v>-8400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ketoprak</t>
+          <t>Bakso</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>June 17, 2023 8:28 PM</t>
+          <t>July 21, 2023 11:33 AM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-15000</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jaya residence</t>
+          <t>Kebab n steak</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>June 18, 2023 10:21 AM</t>
+          <t>July 24, 2023 4:40 PM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1900000</v>
+        <v>-67400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ayam geprek tempe</t>
+          <t>Gaji</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>June 19, 2023 3:14 PM</t>
+          <t>July 25, 2023 8:14 AM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-20000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Gado gado</t>
+          <t xml:space="preserve">Gado gado </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>June 22, 2023 12:46 PM</t>
+          <t>July 25, 2023 11:23 AM</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1393,256 +1328,226 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gaji</t>
+          <t>Mendoan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>June 23, 2023 6:28 AM</t>
+          <t>July 26, 2023 8:35 AM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4000000</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Manggang value 2</t>
+          <t>Bakso</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>June 23, 2023 1:04 PM</t>
+          <t>July 26, 2023 11:22 AM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-38000</v>
+        <v>-23000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nasi goreng</t>
+          <t>Listrik</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>June 24, 2023 9:55 AM</t>
+          <t>July 26, 2023 5:50 PM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-15000</v>
+        <v>-102500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gorengan</t>
+          <t>Oreo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>June 24, 2023 2:13 PM</t>
+          <t>July 27, 2023 8:50 AM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-5000</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Keju</t>
+          <t>Telur perkedel padang</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>June 24, 2023 2:28 PM</t>
+          <t>July 27, 2023 11:35 AM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-14200</v>
+        <v>-18000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Indomie</t>
+          <t>Gofood</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>June 24, 2023 2:28 PM</t>
+          <t>July 27, 2023 8:45 PM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-8400</v>
+        <v>-60000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aw</t>
+          <t>Hisana</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>June 24, 2023 2:28 PM</t>
+          <t>July 29, 2023 12:34 PM</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-6300</v>
+        <v>-47500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Roti tawar</t>
+          <t>Indomi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>June 24, 2023 2:29 PM</t>
+          <t>July 30, 2023 10:02 AM</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-22000</v>
+        <v>-8400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Telur</t>
+          <t>Indomart air</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>June 24, 2023 2:29 PM</t>
+          <t>July 30, 2023 10:02 AM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-21600</v>
+        <v>-4900</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gado gado</t>
+          <t>Telur</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>June 26, 2023 11:21 AM</t>
+          <t>July 30, 2023 10:02 AM</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-21000</v>
+        <v>-28000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Oreo</t>
+          <t>Donasi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>June 26, 2023 11:57 AM</t>
+          <t>July 30, 2023 10:03 AM</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-3000</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Laundry</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>June 27, 2023 7:35 AM</t>
+          <t>July 30, 2023 10:07 AM</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-14000</v>
+        <v>-82000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Laundry</t>
+          <t>Susu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>June 27, 2023 9:30 AM</t>
+          <t>July 30, 2023 1:20 PM</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-73000</v>
+        <v>-130000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kulit tahu tempe</t>
+          <t>Burger geber</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>June 27, 2023 11:41 AM</t>
+          <t>July 30, 2023 7:10 PM</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-13000</v>
+        <v>-78500</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Oreo</t>
+          <t>Bakso</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>June 27, 2023 12:16 PM</t>
+          <t>July 31, 2023 12:04 PM</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Ramen sugakiya</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>June 27, 2023 5:29 PM</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Roti o</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>June 27, 2023 5:50 PM</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>-26000</v>
+        <v>-23000</v>
       </c>
     </row>
   </sheetData>
